--- a/api/src/test/resources/contractor-registration-elpe.xlsx
+++ b/api/src/test/resources/contractor-registration-elpe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\seminar\api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B3F0F2-6DC9-4435-B17F-14AEF0993BDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294882B8-9CD3-4953-82BE-0F040131E87B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>ΕΠΩΝΥΜΟ</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Χ596760</t>
-  </si>
-  <si>
-    <t>1909357</t>
   </si>
   <si>
     <t>ΑΛΕΞΙΟΥ</t>
@@ -865,9 +862,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,17 +871,59 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -897,9 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,12 +964,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -946,46 +973,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2014,15 +2011,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2081,15 +2078,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2148,15 +2145,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2215,15 +2212,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2282,15 +2279,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2349,15 +2346,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2416,15 +2413,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2483,15 +2480,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2550,15 +2547,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2617,15 +2614,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2684,15 +2681,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2751,15 +2748,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2818,15 +2815,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2885,15 +2882,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2952,15 +2949,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3019,13 +3016,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3086,13 +3083,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3153,13 +3150,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3220,15 +3217,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3287,15 +3284,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3354,15 +3351,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3421,15 +3418,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3488,15 +3485,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3555,15 +3552,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3622,15 +3619,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3689,15 +3686,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3756,15 +3753,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3823,15 +3820,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3890,15 +3887,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3957,15 +3954,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4024,15 +4021,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4099,7 +4096,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4158,15 +4155,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4225,15 +4222,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4292,15 +4289,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4359,15 +4356,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4434,7 +4431,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4493,15 +4490,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4560,15 +4557,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4627,15 +4624,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4694,15 +4691,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4761,15 +4758,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4828,15 +4825,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4895,15 +4892,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4962,15 +4959,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5029,15 +5026,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5096,15 +5093,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5163,15 +5160,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5230,15 +5227,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5297,15 +5294,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5364,15 +5361,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5431,15 +5428,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5498,15 +5495,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5565,15 +5562,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5632,15 +5629,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5707,7 +5704,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5766,15 +5763,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5833,15 +5830,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5908,7 +5905,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5967,15 +5964,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6034,15 +6031,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6101,15 +6098,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6168,15 +6165,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6235,15 +6232,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6302,15 +6299,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6369,15 +6366,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6436,15 +6433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6503,15 +6500,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6570,15 +6567,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6637,15 +6634,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6704,15 +6701,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6771,15 +6768,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6838,15 +6835,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6905,15 +6902,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6972,15 +6969,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7039,15 +7036,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7106,15 +7103,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7173,15 +7170,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7240,15 +7237,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7307,15 +7304,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7374,15 +7371,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7449,7 +7446,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7508,15 +7505,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7583,7 +7580,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7642,7 +7639,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -7650,7 +7647,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7709,15 +7706,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7776,15 +7773,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7843,15 +7840,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7910,15 +7907,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7977,15 +7974,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8044,15 +8041,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8111,15 +8108,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8178,15 +8175,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8245,15 +8242,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8320,7 +8317,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8379,15 +8376,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8454,7 +8451,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8513,15 +8510,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8588,7 +8585,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8647,15 +8644,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8714,15 +8711,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8781,15 +8778,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8848,15 +8845,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8915,15 +8912,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8990,7 +8987,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9057,7 +9054,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9116,15 +9113,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9183,15 +9180,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9250,15 +9247,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9317,15 +9314,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9384,15 +9381,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9451,15 +9448,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9518,15 +9515,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9585,15 +9582,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9652,15 +9649,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9719,15 +9716,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9786,15 +9783,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9853,15 +9850,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9928,7 +9925,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9995,7 +9992,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10054,15 +10051,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10121,15 +10118,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10188,15 +10185,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10255,15 +10252,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10330,7 +10327,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10397,7 +10394,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10456,15 +10453,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10523,15 +10520,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10590,15 +10587,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10657,15 +10654,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10724,15 +10721,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10791,15 +10788,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10858,15 +10855,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10925,15 +10922,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10992,15 +10989,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11059,15 +11056,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11134,7 +11131,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11201,7 +11198,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11260,15 +11257,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11327,15 +11324,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11394,15 +11391,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11461,15 +11458,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11528,15 +11525,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11595,15 +11592,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11670,7 +11667,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11729,15 +11726,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11796,15 +11793,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11863,15 +11860,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11930,15 +11927,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11997,15 +11994,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12064,15 +12061,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12131,15 +12128,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12198,15 +12195,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12265,15 +12262,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12332,15 +12329,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12399,15 +12396,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12466,15 +12463,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12533,15 +12530,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12600,15 +12597,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12667,15 +12664,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12734,15 +12731,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12801,15 +12798,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12868,15 +12865,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12935,15 +12932,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13002,15 +12999,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13069,15 +13066,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13136,15 +13133,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13203,15 +13200,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13270,15 +13267,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13337,15 +13334,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13404,15 +13401,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13471,15 +13468,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13546,7 +13543,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13605,15 +13602,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13672,15 +13669,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13739,15 +13736,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13806,15 +13803,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13873,15 +13870,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13948,7 +13945,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14015,7 +14012,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14074,15 +14071,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14149,7 +14146,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14208,15 +14205,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14283,7 +14280,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14350,7 +14347,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14409,15 +14406,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14476,15 +14473,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14543,15 +14540,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14610,15 +14607,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14677,15 +14674,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14744,15 +14741,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14811,15 +14808,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14878,15 +14875,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14945,15 +14942,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15012,15 +15009,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15079,15 +15076,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15146,15 +15143,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15213,15 +15210,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15280,15 +15277,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15347,15 +15344,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15414,15 +15411,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15481,15 +15478,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15556,7 +15553,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15623,7 +15620,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15682,15 +15679,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15757,7 +15754,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15816,15 +15813,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15883,15 +15880,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15950,15 +15947,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16017,15 +16014,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16084,15 +16081,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16151,15 +16148,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16218,15 +16215,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16285,15 +16282,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16352,15 +16349,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16419,15 +16416,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16486,15 +16483,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16553,15 +16550,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16620,15 +16617,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16687,15 +16684,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16754,15 +16751,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16821,15 +16818,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16888,15 +16885,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16955,15 +16952,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17344,31 +17341,31 @@
   <sheetPr codeName="Φύλλο1"/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="4.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="4.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="3.33203125" style="1" customWidth="1"/>
-    <col min="14" max="38" width="3.33203125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="3.33203125" style="16" customWidth="1"/>
-    <col min="40" max="41" width="3.33203125" style="3" customWidth="1"/>
-    <col min="42" max="42" width="3.33203125" style="2" customWidth="1"/>
-    <col min="43" max="16384" width="9.109375" style="2"/>
+    <col min="11" max="11" width="5.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="3.28515625" style="1" customWidth="1"/>
+    <col min="14" max="38" width="3.28515625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="3.28515625" style="16" customWidth="1"/>
+    <col min="40" max="41" width="3.28515625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="3.28515625" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
@@ -17415,7 +17412,7 @@
       <c r="AP1" s="18"/>
       <c r="AQ1" s="18"/>
     </row>
-    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>46</v>
       </c>
@@ -17431,261 +17428,261 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
     </row>
-    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
     </row>
-    <row r="4" spans="1:43" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:43" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="43" t="s">
+      <c r="Z4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AA4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="43" t="s">
+      <c r="AC4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="43" t="s">
+      <c r="AD4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="43" t="s">
+      <c r="AE4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="43" t="s">
+      <c r="AF4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="43" t="s">
+      <c r="AG4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="43" t="s">
+      <c r="AH4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="43" t="s">
+      <c r="AI4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="43" t="s">
+      <c r="AJ4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="43" t="s">
+      <c r="AK4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="43" t="s">
+      <c r="AL4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AM4" s="43" t="s">
+      <c r="AM4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AN4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="43" t="s">
+      <c r="AO4" s="42" t="s">
         <v>38</v>
       </c>
       <c r="AP4" s="6"/>
       <c r="AQ4" s="6"/>
     </row>
-    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6"/>
     </row>
-    <row r="6" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="28" t="s">
         <v>61</v>
       </c>
@@ -17695,46 +17692,46 @@
         <v>51</v>
       </c>
       <c r="G6" s="29"/>
-      <c r="H6" s="52">
+      <c r="H6" s="64">
         <v>43049</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="43"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="42"/>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>32</v>
       </c>
@@ -17748,227 +17745,227 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
     </row>
-    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="34"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="31"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
     </row>
-    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="31"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="43"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
     </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="43"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
     </row>
-    <row r="12" spans="1:43" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>40</v>
       </c>
@@ -18000,41 +17997,41 @@
         <v>9</v>
       </c>
       <c r="K12" s="14"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
     </row>
-    <row r="13" spans="1:43" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+    <row r="13" spans="1:43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40">
         <v>1</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -18090,8 +18087,8 @@
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
     </row>
-    <row r="14" spans="1:43" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+    <row r="14" spans="1:43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40">
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -18112,8 +18109,8 @@
       <c r="G14" s="32"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="40" t="s">
-        <v>75</v>
+      <c r="J14" s="80">
+        <v>1909357</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="38"/>
@@ -18147,8 +18144,8 @@
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
     </row>
-    <row r="15" spans="1:43" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+    <row r="15" spans="1:43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
         <v>3</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -18204,12 +18201,12 @@
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
     </row>
-    <row r="16" spans="1:43" s="10" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+    <row r="16" spans="1:43" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
         <v>4</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>64</v>
@@ -18221,7 +18218,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="33"/>
@@ -18254,7 +18251,7 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
-      <c r="AJ16" s="42"/>
+      <c r="AJ16" s="41"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="15"/>
@@ -18263,6 +18260,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AJ4:AJ12"/>
+    <mergeCell ref="AK4:AK12"/>
+    <mergeCell ref="AL4:AL12"/>
+    <mergeCell ref="AI4:AI12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="AG4:AG12"/>
+    <mergeCell ref="AH4:AH12"/>
+    <mergeCell ref="AF4:AF12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="R4:R12"/>
+    <mergeCell ref="AE4:AE12"/>
+    <mergeCell ref="V4:V12"/>
+    <mergeCell ref="T4:T12"/>
+    <mergeCell ref="AD4:AD12"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="N4:N12"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="AO4:AO12"/>
     <mergeCell ref="AN2:AO3"/>
     <mergeCell ref="M4:M12"/>
@@ -18279,39 +18309,6 @@
     <mergeCell ref="L2:AM3"/>
     <mergeCell ref="AM4:AM12"/>
     <mergeCell ref="B11:K11"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="N4:N12"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="R4:R12"/>
-    <mergeCell ref="AE4:AE12"/>
-    <mergeCell ref="V4:V12"/>
-    <mergeCell ref="T4:T12"/>
-    <mergeCell ref="AD4:AD12"/>
-    <mergeCell ref="AJ4:AJ12"/>
-    <mergeCell ref="AK4:AK12"/>
-    <mergeCell ref="AL4:AL12"/>
-    <mergeCell ref="AI4:AI12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="AG4:AG12"/>
-    <mergeCell ref="AH4:AH12"/>
-    <mergeCell ref="AF4:AF12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -18332,15 +18329,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18354,15 +18351,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18376,15 +18373,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18398,15 +18395,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18420,15 +18417,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18442,15 +18439,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18464,15 +18461,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18486,15 +18483,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18508,15 +18505,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18530,15 +18527,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18552,15 +18549,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18574,15 +18571,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18596,15 +18593,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18618,15 +18615,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18640,15 +18637,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18662,13 +18659,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -18684,13 +18681,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -18706,13 +18703,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -18728,15 +18725,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18750,15 +18747,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18772,15 +18769,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18794,15 +18791,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18816,15 +18813,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18838,15 +18835,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18860,15 +18857,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18882,15 +18879,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18904,15 +18901,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18926,15 +18923,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18948,15 +18945,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18970,15 +18967,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18992,15 +18989,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19022,7 +19019,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19036,15 +19033,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19058,15 +19055,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19080,15 +19077,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19102,15 +19099,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19132,7 +19129,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19146,15 +19143,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19168,15 +19165,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19190,15 +19187,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19212,15 +19209,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19234,15 +19231,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19256,15 +19253,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19278,15 +19275,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19300,15 +19297,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19322,15 +19319,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19344,15 +19341,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19366,15 +19363,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19388,15 +19385,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19410,15 +19407,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19432,15 +19429,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19454,15 +19451,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19476,15 +19473,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19498,15 +19495,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19520,15 +19517,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19550,7 +19547,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19564,15 +19561,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19586,15 +19583,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19616,7 +19613,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19630,15 +19627,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19652,15 +19649,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19674,15 +19671,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19696,15 +19693,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19718,15 +19715,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19740,15 +19737,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19762,15 +19759,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19784,15 +19781,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19806,15 +19803,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19828,15 +19825,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19850,15 +19847,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19872,15 +19869,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19894,15 +19891,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19916,15 +19913,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19938,15 +19935,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19960,15 +19957,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19982,15 +19979,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20004,15 +20001,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20026,15 +20023,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20048,15 +20045,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20070,15 +20067,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20092,15 +20089,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20122,7 +20119,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20136,15 +20133,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20166,7 +20163,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20180,7 +20177,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -20188,7 +20185,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20202,15 +20199,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20224,15 +20221,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20246,15 +20243,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20268,15 +20265,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20290,15 +20287,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20312,15 +20309,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20334,15 +20331,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20356,15 +20353,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20378,15 +20375,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20408,7 +20405,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20422,15 +20419,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20452,7 +20449,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20466,15 +20463,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20496,7 +20493,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20510,15 +20507,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20532,15 +20529,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20554,15 +20551,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20576,15 +20573,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20598,15 +20595,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20628,7 +20625,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20650,7 +20647,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20664,15 +20661,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20686,15 +20683,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20708,15 +20705,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20730,15 +20727,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20752,15 +20749,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20774,15 +20771,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20796,15 +20793,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20818,15 +20815,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20840,15 +20837,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20862,15 +20859,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20884,15 +20881,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20906,15 +20903,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20936,7 +20933,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20958,7 +20955,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20972,15 +20969,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -20994,15 +20991,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21016,15 +21013,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21038,15 +21035,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21068,7 +21065,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21090,7 +21087,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21104,15 +21101,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21126,15 +21123,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21148,15 +21145,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21170,15 +21167,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21192,15 +21189,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21214,15 +21211,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21236,15 +21233,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21258,15 +21255,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21280,15 +21277,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21302,15 +21299,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21332,7 +21329,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21354,7 +21351,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21368,15 +21365,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21390,15 +21387,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21412,15 +21409,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21434,15 +21431,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21456,15 +21453,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21478,15 +21475,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21508,7 +21505,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21522,15 +21519,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21544,15 +21541,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21566,15 +21563,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21588,15 +21585,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21610,15 +21607,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21632,15 +21629,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21654,15 +21651,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21676,15 +21673,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21698,15 +21695,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21720,15 +21717,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21742,15 +21739,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21764,15 +21761,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21786,15 +21783,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21808,15 +21805,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21830,15 +21827,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21852,15 +21849,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21874,15 +21871,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21896,15 +21893,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21918,15 +21915,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21940,15 +21937,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21962,15 +21959,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21984,15 +21981,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22006,15 +22003,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22028,15 +22025,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22050,15 +22047,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22072,15 +22069,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22094,15 +22091,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22124,7 +22121,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22138,15 +22135,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22160,15 +22157,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22182,15 +22179,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22204,15 +22201,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22226,15 +22223,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22256,7 +22253,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22278,7 +22275,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22292,15 +22289,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22322,7 +22319,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22336,15 +22333,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22366,7 +22363,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22388,7 +22385,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22402,15 +22399,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22424,15 +22421,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22446,15 +22443,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22468,15 +22465,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22490,15 +22487,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22512,15 +22509,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22534,15 +22531,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22556,15 +22553,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22578,15 +22575,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22600,15 +22597,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22622,15 +22619,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22644,15 +22641,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22666,15 +22663,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22688,15 +22685,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22710,15 +22707,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22732,15 +22729,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22754,15 +22751,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22784,7 +22781,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22806,7 +22803,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22820,15 +22817,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22850,7 +22847,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22864,15 +22861,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:colOff>276225</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22886,15 +22883,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22908,15 +22905,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22930,15 +22927,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22952,15 +22949,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>297180</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22974,15 +22971,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22996,15 +22993,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23018,15 +23015,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23040,15 +23037,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23062,15 +23059,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23084,15 +23081,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23106,15 +23103,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23128,15 +23125,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23150,15 +23147,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23172,15 +23169,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23194,15 +23191,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23216,15 +23213,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23238,15 +23235,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/api/src/test/resources/contractor-registration-elpe.xlsx
+++ b/api/src/test/resources/contractor-registration-elpe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\seminar\api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294882B8-9CD3-4953-82BE-0F040131E87B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDE6F79-0057-4201-A21E-20269F6D6403}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,18 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +731,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,71 +847,26 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -933,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,6 +910,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -973,16 +925,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17342,7 +17324,7 @@
   <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17428,261 +17410,261 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
     </row>
     <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="V4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="42" t="s">
+      <c r="Y4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="42" t="s">
+      <c r="AA4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="42" t="s">
+      <c r="AB4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AC4" s="42" t="s">
+      <c r="AC4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="42" t="s">
+      <c r="AD4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="42" t="s">
+      <c r="AE4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="42" t="s">
+      <c r="AF4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AG4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="42" t="s">
+      <c r="AH4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AI4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="42" t="s">
+      <c r="AJ4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="42" t="s">
+      <c r="AK4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="42" t="s">
+      <c r="AL4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AM4" s="42" t="s">
+      <c r="AM4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AN4" s="42" t="s">
+      <c r="AN4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="42" t="s">
+      <c r="AO4" s="41" t="s">
         <v>38</v>
       </c>
       <c r="AP4" s="6"/>
       <c r="AQ4" s="6"/>
     </row>
     <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6"/>
     </row>
     <row r="6" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="28" t="s">
         <v>61</v>
       </c>
@@ -17692,42 +17674,42 @@
         <v>51</v>
       </c>
       <c r="G6" s="29"/>
-      <c r="H6" s="64">
+      <c r="H6" s="50">
         <v>43049</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
     </row>
@@ -17745,223 +17727,223 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
     </row>
     <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="34"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
     </row>
     <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="31"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
     </row>
     <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="31"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
     </row>
     <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
     </row>
@@ -17997,41 +17979,41 @@
         <v>9</v>
       </c>
       <c r="K12" s="14"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
     </row>
     <row r="13" spans="1:43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
+      <c r="A13" s="39">
         <v>1</v>
       </c>
       <c r="B13" s="33" t="s">
@@ -18080,7 +18062,7 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
-      <c r="AJ13" s="39"/>
+      <c r="AJ13" s="11"/>
       <c r="AK13" s="38"/>
       <c r="AL13" s="11"/>
       <c r="AM13" s="15"/>
@@ -18088,7 +18070,7 @@
       <c r="AO13" s="11"/>
     </row>
     <row r="14" spans="1:43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -18109,7 +18091,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="80">
+      <c r="J14" s="40">
         <v>1909357</v>
       </c>
       <c r="K14" s="9"/>
@@ -18137,7 +18119,7 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
-      <c r="AJ14" s="39"/>
+      <c r="AJ14" s="11"/>
       <c r="AK14" s="38"/>
       <c r="AL14" s="11"/>
       <c r="AM14" s="15"/>
@@ -18145,7 +18127,7 @@
       <c r="AO14" s="11"/>
     </row>
     <row r="15" spans="1:43" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <v>3</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -18202,7 +18184,7 @@
       <c r="AO15" s="11"/>
     </row>
     <row r="16" spans="1:43" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
+      <c r="A16" s="39">
         <v>4</v>
       </c>
       <c r="B16" s="33" t="s">
@@ -18251,7 +18233,7 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
-      <c r="AJ16" s="41"/>
+      <c r="AJ16" s="11"/>
       <c r="AK16" s="38"/>
       <c r="AL16" s="11"/>
       <c r="AM16" s="15"/>
@@ -18260,39 +18242,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AJ4:AJ12"/>
-    <mergeCell ref="AK4:AK12"/>
-    <mergeCell ref="AL4:AL12"/>
-    <mergeCell ref="AI4:AI12"/>
-    <mergeCell ref="X4:X12"/>
-    <mergeCell ref="Y4:Y12"/>
-    <mergeCell ref="Z4:Z12"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
-    <mergeCell ref="AC4:AC12"/>
-    <mergeCell ref="AG4:AG12"/>
-    <mergeCell ref="AH4:AH12"/>
-    <mergeCell ref="AF4:AF12"/>
-    <mergeCell ref="S4:S12"/>
-    <mergeCell ref="U4:U12"/>
-    <mergeCell ref="R4:R12"/>
-    <mergeCell ref="AE4:AE12"/>
-    <mergeCell ref="V4:V12"/>
-    <mergeCell ref="T4:T12"/>
-    <mergeCell ref="AD4:AD12"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O4:O12"/>
-    <mergeCell ref="N4:N12"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G5:J5"/>
     <mergeCell ref="AO4:AO12"/>
     <mergeCell ref="AN2:AO3"/>
     <mergeCell ref="M4:M12"/>
@@ -18309,6 +18258,39 @@
     <mergeCell ref="L2:AM3"/>
     <mergeCell ref="AM4:AM12"/>
     <mergeCell ref="B11:K11"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="N4:N12"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="R4:R12"/>
+    <mergeCell ref="AE4:AE12"/>
+    <mergeCell ref="V4:V12"/>
+    <mergeCell ref="T4:T12"/>
+    <mergeCell ref="AD4:AD12"/>
+    <mergeCell ref="AJ4:AJ12"/>
+    <mergeCell ref="AK4:AK12"/>
+    <mergeCell ref="AL4:AL12"/>
+    <mergeCell ref="AI4:AI12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="AG4:AG12"/>
+    <mergeCell ref="AH4:AH12"/>
+    <mergeCell ref="AF4:AF12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
